--- a/residual plasmid/compiled Lplasmid std/Lplasmid compiled stds.xlsx
+++ b/residual plasmid/compiled Lplasmid std/Lplasmid compiled stds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lion\Documents\GitHub\python\residual plasmid\compiled Lplasmid std\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3337C47-C945-4D66-A99D-F25A6F996FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59064A4E-11BB-43A3-9D51-418F6F0FC2FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18816" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -260,30 +282,6 @@
   <dxfs count="3">
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -345,6 +343,30 @@
         <horizontal/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -359,15 +381,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A4DE40F2-7383-40DD-A43F-797CA0B33773}" name="Table1" displayName="Table1" ref="A1:D618" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:D618" xr:uid="{A4DE40F2-7383-40DD-A43F-797CA0B33773}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A4DE40F2-7383-40DD-A43F-797CA0B33773}" name="Table1" displayName="Table1" ref="A1:D618" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:D618" xr:uid="{A4DE40F2-7383-40DD-A43F-797CA0B33773}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="3"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A62:D379">
     <sortCondition descending="1" ref="C1:C498"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{411F72C7-632E-40B8-990A-C6EF93D22B51}" name="Run"/>
-    <tableColumn id="2" xr3:uid="{0EAD8DA2-FDB6-4FC7-BC09-D61EFAA61284}" name="Amp" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{D03834C9-B439-4407-99EE-7A764FC24577}" name="Conc (fg/ul)" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{0EAD8DA2-FDB6-4FC7-BC09-D61EFAA61284}" name="Amp" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{D03834C9-B439-4407-99EE-7A764FC24577}" name="Conc (fg/ul)" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{21146F71-E7DD-4558-8448-2DCAEB2E51E2}" name="CT"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -639,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AW112"/>
   <sheetViews>
-    <sheetView topLeftCell="S16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AU3" sqref="AU3:AW62"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6584,6 +6612,16 @@
         <v>37.283489227294922</v>
       </c>
     </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B89" s="17">
+        <f>MIN(A3:AW72)</f>
+        <v>0</v>
+      </c>
+      <c r="C89" t="e" cm="1">
+        <f t="array" ref="C89">min</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C105" s="13"/>
     </row>
@@ -6658,9 +6696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5AF083F-3515-4112-9A1A-9E3A46EB540B}">
   <dimension ref="A1:AR618"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6695,7 +6731,7 @@
       <c r="AM1"/>
       <c r="AR1"/>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6716,7 +6752,7 @@
       <c r="AM2"/>
       <c r="AR2"/>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6737,7 +6773,7 @@
       <c r="AM3"/>
       <c r="AR3"/>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -6758,7 +6794,7 @@
       <c r="AM4"/>
       <c r="AR4"/>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -6779,7 +6815,7 @@
       <c r="AM5"/>
       <c r="AR5"/>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -6800,7 +6836,7 @@
       <c r="AM6"/>
       <c r="AR6"/>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -6821,7 +6857,7 @@
       <c r="AM7"/>
       <c r="AR7"/>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -6842,7 +6878,7 @@
       <c r="AM8"/>
       <c r="AR8"/>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -6863,7 +6899,7 @@
       <c r="AM9"/>
       <c r="AR9"/>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -6884,7 +6920,7 @@
       <c r="AM10"/>
       <c r="AR10"/>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -6905,7 +6941,7 @@
       <c r="AM11"/>
       <c r="AR11"/>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -6926,7 +6962,7 @@
       <c r="AM12"/>
       <c r="AR12"/>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -7086,6 +7122,10 @@
       <c r="D20" s="4">
         <v>19.35809326171875</v>
       </c>
+      <c r="I20">
+        <f>_xlfn.CONFIDENCE.T(0.95,_xlfn.STDEV.S(D20:D21),COUNT(D20:D21))</f>
+        <v>0.12739055209720174</v>
+      </c>
       <c r="N20"/>
       <c r="S20"/>
       <c r="X20"/>
@@ -7107,6 +7147,10 @@
       <c r="D21" s="12">
         <v>16.120792388916001</v>
       </c>
+      <c r="I21" s="14">
+        <f>AVERAGE(D20:D21)</f>
+        <v>17.739442825317376</v>
+      </c>
       <c r="N21"/>
       <c r="S21"/>
       <c r="X21"/>
@@ -7199,7 +7243,7 @@
       <c r="AM25"/>
       <c r="AR25"/>
     </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1</v>
       </c>
@@ -7220,7 +7264,7 @@
       <c r="AM26"/>
       <c r="AR26"/>
     </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1</v>
       </c>
@@ -7241,7 +7285,7 @@
       <c r="AM27"/>
       <c r="AR27"/>
     </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1</v>
       </c>
@@ -7262,7 +7306,7 @@
       <c r="AM28"/>
       <c r="AR28"/>
     </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1</v>
       </c>
@@ -7283,7 +7327,7 @@
       <c r="AM29"/>
       <c r="AR29"/>
     </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1</v>
       </c>
@@ -7304,7 +7348,7 @@
       <c r="AM30"/>
       <c r="AR30"/>
     </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1</v>
       </c>
@@ -7325,7 +7369,7 @@
       <c r="AM31"/>
       <c r="AR31"/>
     </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1</v>
       </c>
@@ -7346,7 +7390,7 @@
       <c r="AM32"/>
       <c r="AR32"/>
     </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1</v>
       </c>
@@ -7367,7 +7411,7 @@
       <c r="AM33"/>
       <c r="AR33"/>
     </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1</v>
       </c>
@@ -7388,7 +7432,7 @@
       <c r="AM34"/>
       <c r="AR34"/>
     </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1</v>
       </c>
@@ -7409,7 +7453,7 @@
       <c r="AM35"/>
       <c r="AR35"/>
     </row>
-    <row r="36" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1</v>
       </c>
@@ -7430,7 +7474,7 @@
       <c r="AM36"/>
       <c r="AR36"/>
     </row>
-    <row r="37" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1</v>
       </c>
@@ -7451,7 +7495,7 @@
       <c r="AM37"/>
       <c r="AR37"/>
     </row>
-    <row r="38" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1</v>
       </c>
@@ -7471,7 +7515,7 @@
       <c r="AM38"/>
       <c r="AR38"/>
     </row>
-    <row r="39" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1</v>
       </c>
@@ -7491,7 +7535,7 @@
       <c r="AM39"/>
       <c r="AR39"/>
     </row>
-    <row r="40" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1</v>
       </c>
@@ -7511,7 +7555,7 @@
       <c r="AM40"/>
       <c r="AR40"/>
     </row>
-    <row r="41" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1</v>
       </c>
@@ -7531,7 +7575,7 @@
       <c r="AM41"/>
       <c r="AR41"/>
     </row>
-    <row r="42" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1</v>
       </c>
@@ -7551,7 +7595,7 @@
       <c r="AM42"/>
       <c r="AR42"/>
     </row>
-    <row r="43" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1</v>
       </c>
@@ -7571,7 +7615,7 @@
       <c r="AM43"/>
       <c r="AR43"/>
     </row>
-    <row r="44" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1</v>
       </c>
@@ -7591,7 +7635,7 @@
       <c r="AM44"/>
       <c r="AR44"/>
     </row>
-    <row r="45" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1</v>
       </c>
@@ -7611,7 +7655,7 @@
       <c r="AM45"/>
       <c r="AR45"/>
     </row>
-    <row r="46" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1</v>
       </c>
@@ -7631,7 +7675,7 @@
       <c r="AM46"/>
       <c r="AR46"/>
     </row>
-    <row r="47" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1</v>
       </c>
@@ -7651,7 +7695,7 @@
       <c r="AM47"/>
       <c r="AR47"/>
     </row>
-    <row r="48" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1</v>
       </c>
@@ -7671,7 +7715,7 @@
       <c r="AM48"/>
       <c r="AR48"/>
     </row>
-    <row r="49" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1</v>
       </c>
@@ -7691,7 +7735,7 @@
       <c r="AM49"/>
       <c r="AR49"/>
     </row>
-    <row r="50" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1</v>
       </c>
@@ -7711,7 +7755,7 @@
       <c r="AM50"/>
       <c r="AR50"/>
     </row>
-    <row r="51" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1</v>
       </c>
@@ -7731,7 +7775,7 @@
       <c r="AM51"/>
       <c r="AR51"/>
     </row>
-    <row r="52" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1</v>
       </c>
@@ -7751,7 +7795,7 @@
       <c r="AM52"/>
       <c r="AR52"/>
     </row>
-    <row r="53" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1</v>
       </c>
@@ -7771,7 +7815,7 @@
       <c r="AM53"/>
       <c r="AR53"/>
     </row>
-    <row r="54" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1</v>
       </c>
@@ -7791,7 +7835,7 @@
       <c r="AM54"/>
       <c r="AR54"/>
     </row>
-    <row r="55" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1</v>
       </c>
@@ -7811,7 +7855,7 @@
       <c r="AM55"/>
       <c r="AR55"/>
     </row>
-    <row r="56" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1</v>
       </c>
@@ -7831,7 +7875,7 @@
       <c r="AM56"/>
       <c r="AR56"/>
     </row>
-    <row r="57" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1</v>
       </c>
@@ -7851,7 +7895,7 @@
       <c r="AM57"/>
       <c r="AR57"/>
     </row>
-    <row r="58" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1</v>
       </c>
@@ -7871,7 +7915,7 @@
       <c r="AM58"/>
       <c r="AR58"/>
     </row>
-    <row r="59" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1</v>
       </c>
@@ -7891,7 +7935,7 @@
       <c r="AM59"/>
       <c r="AR59"/>
     </row>
-    <row r="60" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1</v>
       </c>
@@ -7911,7 +7955,7 @@
       <c r="AM60"/>
       <c r="AR60"/>
     </row>
-    <row r="61" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1</v>
       </c>
@@ -7931,7 +7975,7 @@
       <c r="AM61"/>
       <c r="AR61"/>
     </row>
-    <row r="62" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>2</v>
       </c>
@@ -7951,7 +7995,7 @@
       <c r="AM62"/>
       <c r="AR62"/>
     </row>
-    <row r="63" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>2</v>
       </c>
@@ -7971,7 +8015,7 @@
       <c r="AM63"/>
       <c r="AR63"/>
     </row>
-    <row r="64" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>5</v>
       </c>
@@ -7991,7 +8035,7 @@
       <c r="AM64"/>
       <c r="AR64"/>
     </row>
-    <row r="65" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>2</v>
       </c>
@@ -8011,7 +8055,7 @@
       <c r="AM65"/>
       <c r="AR65"/>
     </row>
-    <row r="66" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>2</v>
       </c>
@@ -8031,7 +8075,7 @@
       <c r="AM66"/>
       <c r="AR66"/>
     </row>
-    <row r="67" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>4</v>
       </c>
@@ -8051,7 +8095,7 @@
       <c r="AM67"/>
       <c r="AR67"/>
     </row>
-    <row r="68" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>4</v>
       </c>
@@ -8071,7 +8115,7 @@
       <c r="AM68"/>
       <c r="AR68"/>
     </row>
-    <row r="69" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>4</v>
       </c>
@@ -8091,7 +8135,7 @@
       <c r="AM69"/>
       <c r="AR69"/>
     </row>
-    <row r="70" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>5</v>
       </c>
@@ -8111,7 +8155,7 @@
       <c r="AM70"/>
       <c r="AR70"/>
     </row>
-    <row r="71" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>6</v>
       </c>
@@ -8131,7 +8175,7 @@
       <c r="AM71"/>
       <c r="AR71"/>
     </row>
-    <row r="72" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>6</v>
       </c>
@@ -8151,7 +8195,7 @@
       <c r="AM72"/>
       <c r="AR72"/>
     </row>
-    <row r="73" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>6</v>
       </c>
@@ -8171,7 +8215,7 @@
       <c r="AM73"/>
       <c r="AR73"/>
     </row>
-    <row r="74" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>2</v>
       </c>
@@ -8191,7 +8235,7 @@
       <c r="AM74"/>
       <c r="AR74"/>
     </row>
-    <row r="75" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>2</v>
       </c>
@@ -8211,7 +8255,7 @@
       <c r="AM75"/>
       <c r="AR75"/>
     </row>
-    <row r="76" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>2</v>
       </c>
@@ -8231,7 +8275,7 @@
       <c r="AM76"/>
       <c r="AR76"/>
     </row>
-    <row r="77" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>2</v>
       </c>
@@ -8245,7 +8289,7 @@
         <v>13.633955001831055</v>
       </c>
     </row>
-    <row r="78" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>2</v>
       </c>
@@ -8259,7 +8303,7 @@
         <v>17.113058090209961</v>
       </c>
     </row>
-    <row r="79" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>2</v>
       </c>
@@ -8273,7 +8317,7 @@
         <v>17.074121475219727</v>
       </c>
     </row>
-    <row r="80" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>2</v>
       </c>
@@ -8287,7 +8331,7 @@
         <v>20.538742065429688</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>2</v>
       </c>
@@ -8301,7 +8345,7 @@
         <v>20.512079238891602</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>2</v>
       </c>
@@ -8315,7 +8359,7 @@
         <v>23.946142196655273</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>2</v>
       </c>
@@ -8329,7 +8373,7 @@
         <v>23.871192932128906</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>2</v>
       </c>
@@ -8343,7 +8387,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>2</v>
       </c>
@@ -8357,7 +8401,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>2</v>
       </c>
@@ -8371,7 +8415,7 @@
         <v>8.5369234085083008</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>2</v>
       </c>
@@ -8385,7 +8429,7 @@
         <v>8.5236530303955078</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>2</v>
       </c>
@@ -8399,7 +8443,7 @@
         <v>12.129300117492676</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>2</v>
       </c>
@@ -8413,7 +8457,7 @@
         <v>12.125360488891602</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>2</v>
       </c>
@@ -8427,7 +8471,7 @@
         <v>15.592616081237793</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>2</v>
       </c>
@@ -8441,7 +8485,7 @@
         <v>15.52694034576416</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>2</v>
       </c>
@@ -8455,7 +8499,7 @@
         <v>18.920186996459961</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>2</v>
       </c>
@@ -8469,7 +8513,7 @@
         <v>18.937273025512695</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>2</v>
       </c>
@@ -8483,7 +8527,7 @@
         <v>22.310911178588867</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>2</v>
       </c>
@@ -8497,7 +8541,7 @@
         <v>22.300148010253906</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>2</v>
       </c>
@@ -8511,7 +8555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>2</v>
       </c>
@@ -8525,7 +8569,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>2</v>
       </c>
@@ -8539,7 +8583,7 @@
         <v>8.4828100204467773</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>2</v>
       </c>
@@ -8553,7 +8597,7 @@
         <v>8.874420166015625</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>2</v>
       </c>
@@ -8567,7 +8611,7 @@
         <v>12.581087112426758</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>2</v>
       </c>
@@ -8581,7 +8625,7 @@
         <v>11.903988838195801</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>2</v>
       </c>
@@ -8595,7 +8639,7 @@
         <v>15.535981178283691</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>2</v>
       </c>
@@ -8609,7 +8653,7 @@
         <v>15.748470306396484</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>2</v>
       </c>
@@ -8623,7 +8667,7 @@
         <v>18.870216369628906</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>2</v>
       </c>
@@ -8637,7 +8681,7 @@
         <v>18.948068618774414</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>2</v>
       </c>
@@ -8651,7 +8695,7 @@
         <v>22.272556304931641</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>2</v>
       </c>
@@ -8665,7 +8709,7 @@
         <v>22.522146224975586</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>2</v>
       </c>
@@ -8679,7 +8723,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>2</v>
       </c>
@@ -8693,7 +8737,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>3</v>
       </c>
@@ -8707,7 +8751,7 @@
         <v>8.6646909713745117</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>3</v>
       </c>
@@ -8721,7 +8765,7 @@
         <v>8.6535415649414063</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>3</v>
       </c>
@@ -8735,7 +8779,7 @@
         <v>8.7046327590942383</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>3</v>
       </c>
@@ -8749,7 +8793,7 @@
         <v>12.090081214904785</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>3</v>
       </c>
@@ -8763,7 +8807,7 @@
         <v>12.112380981445313</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>3</v>
       </c>
@@ -8777,7 +8821,7 @@
         <v>12.108259201049805</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>3</v>
       </c>
@@ -8791,7 +8835,7 @@
         <v>15.410630226135254</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>3</v>
       </c>
@@ -8805,7 +8849,7 @@
         <v>15.438325881958008</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>3</v>
       </c>
@@ -8819,7 +8863,7 @@
         <v>15.453725814819336</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>3</v>
       </c>
@@ -8833,7 +8877,7 @@
         <v>18.738504409790039</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>3</v>
       </c>
@@ -8847,7 +8891,7 @@
         <v>18.738876342773438</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>3</v>
       </c>
@@ -8861,7 +8905,7 @@
         <v>18.743656158447266</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>3</v>
       </c>
@@ -8875,7 +8919,7 @@
         <v>22.015254974365234</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>3</v>
       </c>
@@ -8889,7 +8933,7 @@
         <v>22.027572631835938</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>3</v>
       </c>
@@ -8903,7 +8947,7 @@
         <v>22.056758880615234</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>3</v>
       </c>
@@ -8917,7 +8961,7 @@
         <v>25.418703079223633</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>3</v>
       </c>
@@ -8931,7 +8975,7 @@
         <v>25.425559997558594</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>3</v>
       </c>
@@ -8945,7 +8989,7 @@
         <v>25.365802764892578</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>3</v>
       </c>
@@ -8959,7 +9003,7 @@
         <v>28.886184692382813</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>3</v>
       </c>
@@ -8973,7 +9017,7 @@
         <v>28.860834121704102</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>3</v>
       </c>
@@ -8987,7 +9031,7 @@
         <v>28.903722763061523</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>3</v>
       </c>
@@ -9001,7 +9045,7 @@
         <v>32.119838714599609</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>3</v>
       </c>
@@ -9015,7 +9059,7 @@
         <v>32.274665832519531</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>3</v>
       </c>
@@ -9029,7 +9073,7 @@
         <v>32.343219757080078</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>3</v>
       </c>
@@ -9043,7 +9087,7 @@
         <v>35.262908935546875</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>3</v>
       </c>
@@ -9057,7 +9101,7 @@
         <v>35.506240844726563</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>3</v>
       </c>
@@ -9071,7 +9115,7 @@
         <v>35.352958679199219</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>3</v>
       </c>
@@ -9085,7 +9129,7 @@
         <v>37.881572723388672</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>3</v>
       </c>
@@ -9099,7 +9143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>3</v>
       </c>
@@ -9113,7 +9157,7 @@
         <v>39.332202911376953</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>3</v>
       </c>
@@ -9127,7 +9171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>3</v>
       </c>
@@ -9141,7 +9185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>3</v>
       </c>
@@ -9155,7 +9199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>3</v>
       </c>
@@ -9169,7 +9213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>3</v>
       </c>
@@ -9183,7 +9227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>3</v>
       </c>
@@ -9197,7 +9241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>8</v>
       </c>
@@ -9211,7 +9255,7 @@
         <v>21.061927795410156</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>8</v>
       </c>
@@ -9225,7 +9269,7 @@
         <v>21.206674575805664</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>2</v>
       </c>
@@ -9239,7 +9283,7 @@
         <v>24.57050895690918</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>2</v>
       </c>
@@ -9253,7 +9297,7 @@
         <v>24.797824859619141</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>5</v>
       </c>
@@ -9267,7 +9311,7 @@
         <v>24.715450286865234</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>6</v>
       </c>
@@ -9281,7 +9325,7 @@
         <v>26.740800857543945</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>6</v>
       </c>
@@ -9295,7 +9339,7 @@
         <v>26.385152816772461</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>6</v>
       </c>
@@ -9309,7 +9353,7 @@
         <v>26.438913345336914</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>8</v>
       </c>
@@ -9323,7 +9367,7 @@
         <v>24.303691864013672</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>8</v>
       </c>
@@ -9337,7 +9381,7 @@
         <v>24.515525817871094</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>2</v>
       </c>
@@ -9351,7 +9395,7 @@
         <v>28.226034164428711</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>2</v>
       </c>
@@ -9365,7 +9409,7 @@
         <v>28.183504104614258</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>4</v>
       </c>
@@ -9379,7 +9423,7 @@
         <v>27.749795913696289</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>4</v>
       </c>
@@ -9393,7 +9437,7 @@
         <v>27.946708679199219</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>4</v>
       </c>
@@ -9407,7 +9451,7 @@
         <v>27.893922805786133</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>5</v>
       </c>
@@ -9421,7 +9465,7 @@
         <v>28.043876647949219</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>6</v>
       </c>
@@ -9435,7 +9479,7 @@
         <v>30.828369140625</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>6</v>
       </c>
@@ -9449,7 +9493,7 @@
         <v>30.560014724731445</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>4</v>
       </c>
@@ -9463,7 +9507,7 @@
         <v>11.906143188476563</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>4</v>
       </c>
@@ -9477,7 +9521,7 @@
         <v>11.923487663269043</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>4</v>
       </c>
@@ -9491,7 +9535,7 @@
         <v>11.925908088684082</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>4</v>
       </c>
@@ -9505,7 +9549,7 @@
         <v>18.646663665771484</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>4</v>
       </c>
@@ -9519,7 +9563,7 @@
         <v>18.610820770263672</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>4</v>
       </c>
@@ -9533,7 +9577,7 @@
         <v>18.655038833618164</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>4</v>
       </c>
@@ -9547,7 +9591,7 @@
         <v>28.616167068481445</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>4</v>
       </c>
@@ -9561,7 +9605,7 @@
         <v>28.634576797485352</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>4</v>
       </c>
@@ -9575,7 +9619,7 @@
         <v>28.643190383911133</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>4</v>
       </c>
@@ -9589,7 +9633,7 @@
         <v>31.794191360473633</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>4</v>
       </c>
@@ -9603,7 +9647,7 @@
         <v>32.118312835693359</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>4</v>
       </c>
@@ -9617,7 +9661,7 @@
         <v>32.238468170166016</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>4</v>
       </c>
@@ -9631,7 +9675,7 @@
         <v>34.203456878662109</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>4</v>
       </c>
@@ -9645,7 +9689,7 @@
         <v>34.646331787109375</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>4</v>
       </c>
@@ -9659,7 +9703,7 @@
         <v>35.299160003662109</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>4</v>
       </c>
@@ -9673,7 +9717,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>4</v>
       </c>
@@ -9687,7 +9731,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>4</v>
       </c>
@@ -9701,7 +9745,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>4</v>
       </c>
@@ -9715,7 +9759,7 @@
         <v>11.51572322845459</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>4</v>
       </c>
@@ -9729,7 +9773,7 @@
         <v>11.437056541442871</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>4</v>
       </c>
@@ -9743,7 +9787,7 @@
         <v>11.883085250854492</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>4</v>
       </c>
@@ -9757,7 +9801,7 @@
         <v>18.298810958862305</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>4</v>
       </c>
@@ -9771,7 +9815,7 @@
         <v>18.399311065673828</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>4</v>
       </c>
@@ -9785,7 +9829,7 @@
         <v>18.584672927856445</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>4</v>
       </c>
@@ -9799,7 +9843,7 @@
         <v>28.323093414306641</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>4</v>
       </c>
@@ -9813,7 +9857,7 @@
         <v>28.418615341186523</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>4</v>
       </c>
@@ -9827,7 +9871,7 @@
         <v>28.571001052856445</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>4</v>
       </c>
@@ -9841,7 +9885,7 @@
         <v>32.263233184814453</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>4</v>
       </c>
@@ -9855,7 +9899,7 @@
         <v>31.712631225585938</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>4</v>
       </c>
@@ -9869,7 +9913,7 @@
         <v>31.748317718505859</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>4</v>
       </c>
@@ -9883,7 +9927,7 @@
         <v>36.107505798339844</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>4</v>
       </c>
@@ -9897,7 +9941,7 @@
         <v>35.379905700683594</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>4</v>
       </c>
@@ -9911,7 +9955,7 @@
         <v>35.857509613037109</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>4</v>
       </c>
@@ -9925,7 +9969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>4</v>
       </c>
@@ -9939,7 +9983,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>4</v>
       </c>
@@ -9953,7 +9997,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>6</v>
       </c>
@@ -9967,7 +10011,7 @@
         <v>30.563377380371094</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>8</v>
       </c>
@@ -9981,7 +10025,7 @@
         <v>28.972724914550781</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>8</v>
       </c>
@@ -9995,7 +10039,7 @@
         <v>28.944272994995117</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>2</v>
       </c>
@@ -10009,7 +10053,7 @@
         <v>31.40241813659668</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>2</v>
       </c>
@@ -10023,7 +10067,7 @@
         <v>31.948446273803711</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>5</v>
       </c>
@@ -10037,7 +10081,7 @@
         <v>31.177165985107422</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>6</v>
       </c>
@@ -10051,7 +10095,7 @@
         <v>33.689296722412109</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>6</v>
       </c>
@@ -10065,7 +10109,7 @@
         <v>32.981609344482422</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>6</v>
       </c>
@@ -10079,7 +10123,7 @@
         <v>32.977706909179688</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>8</v>
       </c>
@@ -10093,7 +10137,7 @@
         <v>31.059236526489258</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>5</v>
       </c>
@@ -10107,7 +10151,7 @@
         <v>8.1564416885375977</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>5</v>
       </c>
@@ -10121,7 +10165,7 @@
         <v>12.260401725769043</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>5</v>
       </c>
@@ -10135,7 +10179,7 @@
         <v>15.679040908813477</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>5</v>
       </c>
@@ -10149,7 +10193,7 @@
         <v>19.038814544677734</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>5</v>
       </c>
@@ -10163,7 +10207,7 @@
         <v>21.629194259643555</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>5</v>
       </c>
@@ -10177,7 +10221,7 @@
         <v>25.45745849609375</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>5</v>
       </c>
@@ -10191,7 +10235,7 @@
         <v>28.584568023681641</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>5</v>
       </c>
@@ -10205,7 +10249,7 @@
         <v>32.335952758789063</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>5</v>
       </c>
@@ -10219,7 +10263,7 @@
         <v>36.616443634033203</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>5</v>
       </c>
@@ -10233,7 +10277,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>5</v>
       </c>
@@ -10247,7 +10291,7 @@
         <v>7.7718462944030762</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>5</v>
       </c>
@@ -10261,7 +10305,7 @@
         <v>11.824969291687012</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>5</v>
       </c>
@@ -10275,7 +10319,7 @@
         <v>15.299125671386719</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>5</v>
       </c>
@@ -10289,7 +10333,7 @@
         <v>18.572944641113281</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>5</v>
       </c>
@@ -10303,7 +10347,7 @@
         <v>21.264705657958984</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>5</v>
       </c>
@@ -10317,7 +10361,7 @@
         <v>25.142047882080078</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>5</v>
       </c>
@@ -10331,7 +10375,7 @@
         <v>28.106880187988281</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>5</v>
       </c>
@@ -10345,7 +10389,7 @@
         <v>32.144340515136719</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>5</v>
       </c>
@@ -10359,7 +10403,7 @@
         <v>36.896450042724609</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>5</v>
       </c>
@@ -10373,7 +10417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>5</v>
       </c>
@@ -10387,7 +10431,7 @@
         <v>7.7165307998657227</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>5</v>
       </c>
@@ -10401,7 +10445,7 @@
         <v>11.846294403076172</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>5</v>
       </c>
@@ -10415,7 +10459,7 @@
         <v>15.376070976257324</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>5</v>
       </c>
@@ -10429,7 +10473,7 @@
         <v>18.693437576293945</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>5</v>
       </c>
@@ -10443,7 +10487,7 @@
         <v>21.404531478881836</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>5</v>
       </c>
@@ -10457,7 +10501,7 @@
         <v>25.180984497070313</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>5</v>
       </c>
@@ -10471,7 +10515,7 @@
         <v>28.216806411743164</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>5</v>
       </c>
@@ -10485,7 +10529,7 @@
         <v>32.144210815429688</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>5</v>
       </c>
@@ -10499,7 +10543,7 @@
         <v>36.312919616699219</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>5</v>
       </c>
@@ -10513,7 +10557,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>5</v>
       </c>
@@ -10527,7 +10571,7 @@
         <v>7.8281497955322266</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>5</v>
       </c>
@@ -10541,7 +10585,7 @@
         <v>11.875972747802734</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>5</v>
       </c>
@@ -10555,7 +10599,7 @@
         <v>15.404980659484863</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>5</v>
       </c>
@@ -10569,7 +10613,7 @@
         <v>18.633569717407227</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>5</v>
       </c>
@@ -10583,7 +10627,7 @@
         <v>21.472864151000977</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>5</v>
       </c>
@@ -10597,7 +10641,7 @@
         <v>25.294567108154297</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>5</v>
       </c>
@@ -10611,7 +10655,7 @@
         <v>28.423816680908203</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>5</v>
       </c>
@@ -10625,7 +10669,7 @@
         <v>32.023513793945313</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>5</v>
       </c>
@@ -10639,7 +10683,7 @@
         <v>34.682247161865234</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>5</v>
       </c>
@@ -10653,7 +10697,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>5</v>
       </c>
@@ -10667,7 +10711,7 @@
         <v>8.2661981582641602</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>5</v>
       </c>
@@ -10681,7 +10725,7 @@
         <v>12.528121948242188</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>5</v>
       </c>
@@ -10695,7 +10739,7 @@
         <v>15.83619499206543</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>5</v>
       </c>
@@ -10709,7 +10753,7 @@
         <v>19.157054901123047</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>5</v>
       </c>
@@ -10723,7 +10767,7 @@
         <v>21.861539840698242</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>5</v>
       </c>
@@ -10737,7 +10781,7 @@
         <v>25.712551116943359</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>5</v>
       </c>
@@ -10751,7 +10795,7 @@
         <v>28.685697555541992</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>5</v>
       </c>
@@ -10765,7 +10809,7 @@
         <v>33.284389495849609</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>5</v>
       </c>
@@ -10779,7 +10823,7 @@
         <v>36.292564392089844</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>5</v>
       </c>
@@ -10793,7 +10837,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>8</v>
       </c>
@@ -10807,7 +10851,7 @@
         <v>31.498470306396484</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>5</v>
       </c>
@@ -10821,7 +10865,7 @@
         <v>35.767478942871094</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>6</v>
       </c>
@@ -10835,7 +10879,7 @@
         <v>36.963352203369141</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>6</v>
       </c>
@@ -10849,7 +10893,7 @@
         <v>36.993274688720703</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>6</v>
       </c>
@@ -10863,7 +10907,7 @@
         <v>36.507396697998047</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>8</v>
       </c>
@@ -10877,7 +10921,7 @@
         <v>34.474803924560547</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>8</v>
       </c>
@@ -10891,7 +10935,7 @@
         <v>35.303470611572266</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>4</v>
       </c>
@@ -10905,7 +10949,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>4</v>
       </c>
@@ -10919,7 +10963,7 @@
         <v>36.569911956787109</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>4</v>
       </c>
@@ -10933,7 +10977,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>5</v>
       </c>
@@ -10947,7 +10991,7 @@
         <v>38.393959045410156</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>4</v>
       </c>
@@ -10961,7 +11005,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>4</v>
       </c>
@@ -10975,7 +11019,7 @@
         <v>38.431049346923828</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>4</v>
       </c>
@@ -10989,7 +11033,7 @@
         <v>38.413928985595703</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>5</v>
       </c>
@@ -11003,7 +11047,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>4</v>
       </c>
@@ -11017,7 +11061,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>4</v>
       </c>
@@ -11031,7 +11075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>4</v>
       </c>
@@ -11045,7 +11089,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>6</v>
       </c>
@@ -11059,7 +11103,7 @@
         <v>14.490793228149414</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>6</v>
       </c>
@@ -11073,7 +11117,7 @@
         <v>14.518186569213867</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>6</v>
       </c>
@@ -11087,7 +11131,7 @@
         <v>14.502767562866211</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>6</v>
       </c>
@@ -11101,7 +11145,7 @@
         <v>17.290666580200195</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>6</v>
       </c>
@@ -11115,7 +11159,7 @@
         <v>17.273204803466797</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>6</v>
       </c>
@@ -11129,7 +11173,7 @@
         <v>17.294445037841797</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>6</v>
       </c>
@@ -11143,7 +11187,7 @@
         <v>21.46452522277832</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>6</v>
       </c>
@@ -11157,7 +11201,7 @@
         <v>21.472803115844727</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>6</v>
       </c>
@@ -11171,7 +11215,7 @@
         <v>21.499229431152344</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>6</v>
       </c>
@@ -11185,7 +11229,7 @@
         <v>24.023372650146484</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>6</v>
       </c>
@@ -11199,7 +11243,7 @@
         <v>24.010702133178711</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>6</v>
       </c>
@@ -11213,7 +11257,7 @@
         <v>23.992500305175781</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>6</v>
       </c>
@@ -11227,7 +11271,7 @@
         <v>27.440036773681641</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>6</v>
       </c>
@@ -11241,7 +11285,7 @@
         <v>27.443876266479492</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>6</v>
       </c>
@@ -11255,7 +11299,7 @@
         <v>27.490684509277344</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>6</v>
       </c>
@@ -11269,7 +11313,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>6</v>
       </c>
@@ -11283,7 +11327,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>6</v>
       </c>
@@ -11297,7 +11341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>6</v>
       </c>
@@ -11311,7 +11355,7 @@
         <v>13.950290679931641</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>6</v>
       </c>
@@ -11325,7 +11369,7 @@
         <v>13.777278900146484</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>6</v>
       </c>
@@ -11339,7 +11383,7 @@
         <v>13.98858642578125</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>6</v>
       </c>
@@ -11353,7 +11397,7 @@
         <v>16.726350784301758</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>6</v>
       </c>
@@ -11367,7 +11411,7 @@
         <v>16.786211013793945</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>6</v>
       </c>
@@ -11381,7 +11425,7 @@
         <v>16.439662933349609</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>6</v>
       </c>
@@ -11395,7 +11439,7 @@
         <v>20.883283615112305</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>6</v>
       </c>
@@ -11409,7 +11453,7 @@
         <v>20.956619262695313</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>6</v>
       </c>
@@ -11423,7 +11467,7 @@
         <v>20.804372787475586</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>6</v>
       </c>
@@ -11437,7 +11481,7 @@
         <v>23.497051239013672</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>6</v>
       </c>
@@ -11451,7 +11495,7 @@
         <v>23.550134658813477</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>6</v>
       </c>
@@ -11465,7 +11509,7 @@
         <v>23.16624641418457</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>6</v>
       </c>
@@ -11479,7 +11523,7 @@
         <v>26.951423645019531</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>6</v>
       </c>
@@ -11493,7 +11537,7 @@
         <v>26.878171920776367</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>6</v>
       </c>
@@ -11507,7 +11551,7 @@
         <v>26.773998260498047</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>6</v>
       </c>
@@ -11521,7 +11565,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>6</v>
       </c>
@@ -11535,7 +11579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>6</v>
       </c>
@@ -11549,7 +11593,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>7</v>
       </c>
@@ -11563,7 +11607,7 @@
         <v>12.340204238891602</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>7</v>
       </c>
@@ -11577,7 +11621,7 @@
         <v>11.950848579406738</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>7</v>
       </c>
@@ -11591,7 +11635,7 @@
         <v>11.94490909576416</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>7</v>
       </c>
@@ -11605,7 +11649,7 @@
         <v>15.539525032043457</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>7</v>
       </c>
@@ -11619,7 +11663,7 @@
         <v>15.767180442810059</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>7</v>
       </c>
@@ -11633,7 +11677,7 @@
         <v>15.505454063415527</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>7</v>
       </c>
@@ -11647,7 +11691,7 @@
         <v>19.326265335083008</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>7</v>
       </c>
@@ -11661,7 +11705,7 @@
         <v>19.070610046386719</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>7</v>
       </c>
@@ -11675,7 +11719,7 @@
         <v>18.961101531982422</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>7</v>
       </c>
@@ -11689,7 +11733,7 @@
         <v>22.334613800048828</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>7</v>
       </c>
@@ -11703,7 +11747,7 @@
         <v>22.059070587158203</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>7</v>
       </c>
@@ -11717,7 +11761,7 @@
         <v>22.067050933837891</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>7</v>
       </c>
@@ -11731,7 +11775,7 @@
         <v>25.762153625488281</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>7</v>
       </c>
@@ -11745,7 +11789,7 @@
         <v>25.460390090942383</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>7</v>
       </c>
@@ -11759,7 +11803,7 @@
         <v>25.427324295043945</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>7</v>
       </c>
@@ -11773,7 +11817,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>7</v>
       </c>
@@ -11787,7 +11831,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>7</v>
       </c>
@@ -11801,7 +11845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>7</v>
       </c>
@@ -11815,7 +11859,7 @@
         <v>11.956866264343262</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>7</v>
       </c>
@@ -11829,7 +11873,7 @@
         <v>11.938986778259277</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>7</v>
       </c>
@@ -11843,7 +11887,7 @@
         <v>11.877557754516602</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>7</v>
       </c>
@@ -11857,7 +11901,7 @@
         <v>15.499014854431152</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>7</v>
       </c>
@@ -11871,7 +11915,7 @@
         <v>15.534358024597168</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>7</v>
       </c>
@@ -11885,7 +11929,7 @@
         <v>15.219820976257324</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>7</v>
       </c>
@@ -11899,7 +11943,7 @@
         <v>19.109287261962891</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>7</v>
       </c>
@@ -11913,7 +11957,7 @@
         <v>19.128742218017578</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>7</v>
       </c>
@@ -11927,7 +11971,7 @@
         <v>19.118680953979492</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>7</v>
       </c>
@@ -11941,7 +11985,7 @@
         <v>22.126411437988281</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>7</v>
       </c>
@@ -11955,7 +11999,7 @@
         <v>22.103069305419922</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>7</v>
       </c>
@@ -11969,7 +12013,7 @@
         <v>22.259605407714844</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>7</v>
       </c>
@@ -11983,7 +12027,7 @@
         <v>25.504758834838867</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>7</v>
       </c>
@@ -11997,7 +12041,7 @@
         <v>25.473947525024414</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>7</v>
       </c>
@@ -12011,7 +12055,7 @@
         <v>25.477273941040039</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>7</v>
       </c>
@@ -12025,7 +12069,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>7</v>
       </c>
@@ -12039,7 +12083,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>7</v>
       </c>
@@ -12053,7 +12097,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>7</v>
       </c>
@@ -12067,7 +12111,7 @@
         <v>12.212597846984863</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>7</v>
       </c>
@@ -12081,7 +12125,7 @@
         <v>12.314696311950684</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>7</v>
       </c>
@@ -12095,7 +12139,7 @@
         <v>12.300030708312988</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>7</v>
       </c>
@@ -12109,7 +12153,7 @@
         <v>15.825652122497559</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>7</v>
       </c>
@@ -12123,7 +12167,7 @@
         <v>15.886402130126953</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>7</v>
       </c>
@@ -12137,7 +12181,7 @@
         <v>15.677809715270996</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>7</v>
       </c>
@@ -12151,7 +12195,7 @@
         <v>19.371940612792969</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>7</v>
       </c>
@@ -12165,7 +12209,7 @@
         <v>19.313369750976563</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>7</v>
       </c>
@@ -12179,7 +12223,7 @@
         <v>19.314140319824219</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>7</v>
       </c>
@@ -12193,7 +12237,7 @@
         <v>22.277694702148438</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>7</v>
       </c>
@@ -12207,7 +12251,7 @@
         <v>22.358850479125977</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>7</v>
       </c>
@@ -12221,7 +12265,7 @@
         <v>22.237312316894531</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>7</v>
       </c>
@@ -12235,7 +12279,7 @@
         <v>25.702741622924805</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>7</v>
       </c>
@@ -12249,7 +12293,7 @@
         <v>25.761569976806641</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>7</v>
       </c>
@@ -12263,7 +12307,7 @@
         <v>25.631607055664063</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>7</v>
       </c>
@@ -12277,7 +12321,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>7</v>
       </c>
@@ -12291,7 +12335,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>7</v>
       </c>
@@ -12305,7 +12349,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>5</v>
       </c>
@@ -12319,7 +12363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>2</v>
       </c>
@@ -12333,7 +12377,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>2</v>
       </c>
@@ -12347,7 +12391,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>4</v>
       </c>
@@ -12361,7 +12405,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>4</v>
       </c>
@@ -12375,7 +12419,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>4</v>
       </c>
@@ -12389,7 +12433,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>5</v>
       </c>
@@ -12403,7 +12447,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>6</v>
       </c>
@@ -12417,7 +12461,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>6</v>
       </c>
@@ -12431,7 +12475,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>6</v>
       </c>
@@ -12445,7 +12489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>8</v>
       </c>
@@ -12459,7 +12503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>8</v>
       </c>
@@ -12473,7 +12517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>8</v>
       </c>
@@ -12487,7 +12531,7 @@
         <v>11.804413795471191</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>8</v>
       </c>
@@ -12501,7 +12545,7 @@
         <v>11.85517692565918</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>8</v>
       </c>
@@ -12515,7 +12559,7 @@
         <v>15.07892894744873</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>8</v>
       </c>
@@ -12529,7 +12573,7 @@
         <v>14.985158920288086</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>8</v>
       </c>
@@ -12543,7 +12587,7 @@
         <v>20.046197891235352</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>8</v>
       </c>
@@ -12557,7 +12601,7 @@
         <v>19.968816757202148</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>8</v>
       </c>
@@ -12571,7 +12615,7 @@
         <v>21.861013412475586</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>8</v>
       </c>
@@ -12585,7 +12629,7 @@
         <v>21.831584930419922</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>8</v>
       </c>
@@ -12599,7 +12643,7 @@
         <v>25.755672454833984</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>8</v>
       </c>
@@ -12613,7 +12657,7 @@
         <v>25.741588592529297</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>8</v>
       </c>
@@ -12627,7 +12671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>8</v>
       </c>
@@ -12641,7 +12685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>8</v>
       </c>
@@ -12655,7 +12699,7 @@
         <v>11.431200981140137</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>8</v>
       </c>
@@ -12669,7 +12713,7 @@
         <v>11.731159210205078</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>8</v>
       </c>
@@ -12683,7 +12727,7 @@
         <v>14.602025032043457</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>8</v>
       </c>
@@ -12697,7 +12741,7 @@
         <v>14.843259811401367</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>8</v>
       </c>
@@ -12711,7 +12755,7 @@
         <v>19.568414688110352</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>8</v>
       </c>
@@ -12725,7 +12769,7 @@
         <v>19.80938720703125</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>8</v>
       </c>
@@ -12739,7 +12783,7 @@
         <v>21.410198211669922</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>8</v>
       </c>
@@ -12753,7 +12797,7 @@
         <v>21.648143768310547</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>8</v>
       </c>
@@ -12767,7 +12811,7 @@
         <v>25.356578826904297</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>8</v>
       </c>
@@ -12781,7 +12825,7 @@
         <v>25.578958511352539</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>8</v>
       </c>
@@ -12795,7 +12839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>8</v>
       </c>
@@ -12809,7 +12853,7 @@
         <v>12.481371879577637</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>8</v>
       </c>
@@ -12823,7 +12867,7 @@
         <v>12.680636405944824</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>8</v>
       </c>
@@ -12837,7 +12881,7 @@
         <v>16.071781158447266</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>8</v>
       </c>
@@ -12851,7 +12895,7 @@
         <v>16.173637390136719</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>8</v>
       </c>
@@ -12865,7 +12909,7 @@
         <v>19.346015930175781</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>8</v>
       </c>
@@ -12879,7 +12923,7 @@
         <v>19.176443099975586</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>8</v>
       </c>
@@ -12893,7 +12937,7 @@
         <v>22.593334197998047</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>8</v>
       </c>
@@ -12907,7 +12951,7 @@
         <v>22.781589508056641</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>8</v>
       </c>
@@ -12921,7 +12965,7 @@
         <v>25.380859375</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>8</v>
       </c>
@@ -12935,7 +12979,7 @@
         <v>25.692911148071289</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>8</v>
       </c>
@@ -12949,7 +12993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>8</v>
       </c>
@@ -12963,7 +13007,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>8</v>
       </c>
@@ -12977,7 +13021,7 @@
         <v>12.769166946411133</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>8</v>
       </c>
@@ -12991,7 +13035,7 @@
         <v>12.561787605285645</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>8</v>
       </c>
@@ -13005,7 +13049,7 @@
         <v>16.156059265136719</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>8</v>
       </c>
@@ -13019,7 +13063,7 @@
         <v>16.132307052612305</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>8</v>
       </c>
@@ -13033,7 +13077,7 @@
         <v>19.27897834777832</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>8</v>
       </c>
@@ -13047,7 +13091,7 @@
         <v>19.213865280151367</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>8</v>
       </c>
@@ -13061,7 +13105,7 @@
         <v>22.729700088500977</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>8</v>
       </c>
@@ -13075,7 +13119,7 @@
         <v>22.717435836791992</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>8</v>
       </c>
@@ -13089,7 +13133,7 @@
         <v>25.845975875854492</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>8</v>
       </c>
@@ -13103,7 +13147,7 @@
         <v>25.571308135986328</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>8</v>
       </c>
@@ -13117,7 +13161,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>8</v>
       </c>
@@ -13131,7 +13175,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>8</v>
       </c>
@@ -13145,7 +13189,7 @@
         <v>12.982199668884277</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>8</v>
       </c>
@@ -13159,7 +13203,7 @@
         <v>13.197184562683105</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>8</v>
       </c>
@@ -13173,7 +13217,7 @@
         <v>16.460702896118164</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>8</v>
       </c>
@@ -13187,7 +13231,7 @@
         <v>16.707340240478516</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>8</v>
       </c>
@@ -13201,7 +13245,7 @@
         <v>19.553468704223633</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>8</v>
       </c>
@@ -13215,7 +13259,7 @@
         <v>19.767858505249023</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>8</v>
       </c>
@@ -13229,7 +13273,7 @@
         <v>22.90501594543457</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>8</v>
       </c>
@@ -13243,7 +13287,7 @@
         <v>23.224266052246094</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>8</v>
       </c>
@@ -13257,7 +13301,7 @@
         <v>25.849765777587891</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>8</v>
       </c>
@@ -13271,7 +13315,7 @@
         <v>26.069047927856445</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>8</v>
       </c>
@@ -13285,7 +13329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>8</v>
       </c>
@@ -13299,7 +13343,7 @@
         <v>37.283489227294922</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>9</v>
       </c>
@@ -13313,7 +13357,7 @@
         <v>12.806604385375977</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>9</v>
       </c>
@@ -13327,7 +13371,7 @@
         <v>13.177253723144531</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>9</v>
       </c>
@@ -13341,7 +13385,7 @@
         <v>16.675027847290039</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>9</v>
       </c>
@@ -13355,7 +13399,7 @@
         <v>16.942689895629883</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>9</v>
       </c>
@@ -13369,7 +13413,7 @@
         <v>20.826972961425781</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>9</v>
       </c>
@@ -13383,7 +13427,7 @@
         <v>20.984052658081055</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>9</v>
       </c>
@@ -13397,7 +13441,7 @@
         <v>24.108602523803711</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>9</v>
       </c>
@@ -13411,7 +13455,7 @@
         <v>24.297130584716797</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>9</v>
       </c>
@@ -13425,7 +13469,7 @@
         <v>26.733680725097656</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>9</v>
       </c>
@@ -13439,7 +13483,7 @@
         <v>27.05320930480957</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>9</v>
       </c>
@@ -13453,7 +13497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>9</v>
       </c>
@@ -13467,7 +13511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>9</v>
       </c>
@@ -13481,7 +13525,7 @@
         <v>12.753545761108398</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>9</v>
       </c>
@@ -13495,7 +13539,7 @@
         <v>12.657406806945801</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>9</v>
       </c>
@@ -13509,7 +13553,7 @@
         <v>16.521415710449219</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>9</v>
       </c>
@@ -13523,7 +13567,7 @@
         <v>16.486700057983398</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>9</v>
       </c>
@@ -13537,7 +13581,7 @@
         <v>20.667713165283203</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>9</v>
       </c>
@@ -13551,7 +13595,7 @@
         <v>20.613300323486328</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>9</v>
       </c>
@@ -13565,7 +13609,7 @@
         <v>23.970857620239258</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>9</v>
       </c>
@@ -13579,7 +13623,7 @@
         <v>23.925724029541016</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>9</v>
       </c>
@@ -13593,7 +13637,7 @@
         <v>26.598737716674805</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>9</v>
       </c>
@@ -13607,7 +13651,7 @@
         <v>26.625751495361328</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>9</v>
       </c>
@@ -13621,7 +13665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>9</v>
       </c>
@@ -13635,7 +13679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>9</v>
       </c>
@@ -13649,7 +13693,7 @@
         <v>12.729456901550293</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>9</v>
       </c>
@@ -13663,7 +13707,7 @@
         <v>12.823261260986328</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>9</v>
       </c>
@@ -13677,7 +13721,7 @@
         <v>16.595075607299805</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>9</v>
       </c>
@@ -13691,7 +13735,7 @@
         <v>16.890895843505859</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>9</v>
       </c>
@@ -13705,7 +13749,7 @@
         <v>20.677482604980469</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>9</v>
       </c>
@@ -13719,7 +13763,7 @@
         <v>21.000110626220703</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>9</v>
       </c>
@@ -13733,7 +13777,7 @@
         <v>24.065223693847656</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>9</v>
       </c>
@@ -13747,7 +13791,7 @@
         <v>24.246236801147461</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>9</v>
       </c>
@@ -13761,7 +13805,7 @@
         <v>26.796981811523438</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>9</v>
       </c>
@@ -13775,7 +13819,7 @@
         <v>26.935543060302734</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>9</v>
       </c>
@@ -13789,7 +13833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>9</v>
       </c>
@@ -13803,7 +13847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>9</v>
       </c>
@@ -13817,7 +13861,7 @@
         <v>11.744656562805176</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>9</v>
       </c>
@@ -13831,7 +13875,7 @@
         <v>12.056751251220703</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>9</v>
       </c>
@@ -13845,7 +13889,7 @@
         <v>15.527132034301758</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>9</v>
       </c>
@@ -13859,7 +13903,7 @@
         <v>15.753414154052734</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>9</v>
       </c>
@@ -13873,7 +13917,7 @@
         <v>19.360343933105469</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>9</v>
       </c>
@@ -13887,7 +13931,7 @@
         <v>19.547630310058594</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>9</v>
       </c>
@@ -13901,7 +13945,7 @@
         <v>22.215967178344727</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>9</v>
       </c>
@@ -13915,7 +13959,7 @@
         <v>22.514951705932617</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>9</v>
       </c>
@@ -13929,7 +13973,7 @@
         <v>25.64512825012207</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>9</v>
       </c>
@@ -13943,7 +13987,7 @@
         <v>25.942777633666992</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>9</v>
       </c>
@@ -13957,7 +14001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>9</v>
       </c>
@@ -13971,7 +14015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>9</v>
       </c>
@@ -13985,7 +14029,7 @@
         <v>12.370991706848145</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>9</v>
       </c>
@@ -13999,7 +14043,7 @@
         <v>12.627398490905762</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>9</v>
       </c>
@@ -14013,7 +14057,7 @@
         <v>16.128818511962891</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>9</v>
       </c>
@@ -14027,7 +14071,7 @@
         <v>16.330459594726563</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>9</v>
       </c>
@@ -14041,7 +14085,7 @@
         <v>19.837192535400391</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>9</v>
       </c>
@@ -14055,7 +14099,7 @@
         <v>20.095935821533203</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>9</v>
       </c>
@@ -14069,7 +14113,7 @@
         <v>22.688655853271484</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>9</v>
       </c>
@@ -14083,7 +14127,7 @@
         <v>22.907566070556641</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>9</v>
       </c>
@@ -14097,7 +14141,7 @@
         <v>26.107612609863281</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>9</v>
       </c>
@@ -14111,7 +14155,7 @@
         <v>26.432119369506836</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>9</v>
       </c>
@@ -14125,7 +14169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>9</v>
       </c>
@@ -14139,7 +14183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>10</v>
       </c>
@@ -14153,7 +14197,7 @@
         <v>13.919046401977539</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>10</v>
       </c>
@@ -14167,7 +14211,7 @@
         <v>14.145534515380859</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>10</v>
       </c>
@@ -14181,7 +14225,7 @@
         <v>17.902406692504883</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A502">
         <v>10</v>
       </c>
@@ -14195,7 +14239,7 @@
         <v>18.117351531982422</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A503">
         <v>10</v>
       </c>
@@ -14209,7 +14253,7 @@
         <v>20.657529830932617</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A504">
         <v>10</v>
       </c>
@@ -14223,7 +14267,7 @@
         <v>20.987848281860352</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A505">
         <v>10</v>
       </c>
@@ -14237,7 +14281,7 @@
         <v>24.270278930664063</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A506">
         <v>10</v>
       </c>
@@ -14251,7 +14295,7 @@
         <v>24.526212692260742</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A507">
         <v>10</v>
       </c>
@@ -14265,7 +14309,7 @@
         <v>27.995351791381836</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A508">
         <v>10</v>
       </c>
@@ -14279,7 +14323,7 @@
         <v>28.129245758056641</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A509">
         <v>10</v>
       </c>
@@ -14293,7 +14337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A510">
         <v>10</v>
       </c>
@@ -14307,7 +14351,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A511">
         <v>10</v>
       </c>
@@ -14321,7 +14365,7 @@
         <v>13.672593116760254</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A512">
         <v>10</v>
       </c>
@@ -14335,7 +14379,7 @@
         <v>13.657574653625488</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A513">
         <v>10</v>
       </c>
@@ -14349,7 +14393,7 @@
         <v>17.716798782348633</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A514">
         <v>10</v>
       </c>
@@ -14363,7 +14407,7 @@
         <v>17.590782165527344</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A515">
         <v>10</v>
       </c>
@@ -14377,7 +14421,7 @@
         <v>20.541196823120117</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A516">
         <v>10</v>
       </c>
@@ -14391,7 +14435,7 @@
         <v>20.453878402709961</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A517">
         <v>10</v>
       </c>
@@ -14405,7 +14449,7 @@
         <v>23.998142242431641</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A518">
         <v>10</v>
       </c>
@@ -14419,7 +14463,7 @@
         <v>23.984472274780273</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A519">
         <v>10</v>
       </c>
@@ -14433,7 +14477,7 @@
         <v>27.688098907470703</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A520">
         <v>10</v>
       </c>
@@ -14447,7 +14491,7 @@
         <v>27.660253524780273</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A521">
         <v>10</v>
       </c>
@@ -14461,7 +14505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A522">
         <v>10</v>
       </c>
@@ -14475,7 +14519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A523">
         <v>10</v>
       </c>
@@ -14489,7 +14533,7 @@
         <v>13.778042793273926</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A524">
         <v>10</v>
       </c>
@@ -14503,7 +14547,7 @@
         <v>13.757037162780762</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A525">
         <v>10</v>
       </c>
@@ -14517,7 +14561,7 @@
         <v>17.816373825073242</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A526">
         <v>10</v>
       </c>
@@ -14531,7 +14575,7 @@
         <v>17.797744750976563</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A527">
         <v>10</v>
       </c>
@@ -14545,7 +14589,7 @@
         <v>20.642248153686523</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A528">
         <v>10</v>
       </c>
@@ -14559,7 +14603,7 @@
         <v>20.552248001098633</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A529">
         <v>10</v>
       </c>
@@ -14573,7 +14617,7 @@
         <v>24.191219329833984</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A530">
         <v>10</v>
       </c>
@@ -14587,7 +14631,7 @@
         <v>24.144128799438477</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A531">
         <v>10</v>
       </c>
@@ -14601,7 +14645,7 @@
         <v>27.951253890991211</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A532">
         <v>10</v>
       </c>
@@ -14615,7 +14659,7 @@
         <v>27.90605354309082</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A533">
         <v>10</v>
       </c>
@@ -14629,7 +14673,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A534">
         <v>10</v>
       </c>
@@ -14643,7 +14687,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A535">
         <v>10</v>
       </c>
@@ -14657,7 +14701,7 @@
         <v>13.816885948181152</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A536">
         <v>10</v>
       </c>
@@ -14671,7 +14715,7 @@
         <v>13.711454391479492</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A537">
         <v>10</v>
       </c>
@@ -14685,7 +14729,7 @@
         <v>17.845335006713867</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A538">
         <v>10</v>
       </c>
@@ -14699,7 +14743,7 @@
         <v>17.777009963989258</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A539">
         <v>10</v>
       </c>
@@ -14713,7 +14757,7 @@
         <v>20.696222305297852</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A540">
         <v>10</v>
       </c>
@@ -14727,7 +14771,7 @@
         <v>20.607620239257813</v>
       </c>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A541">
         <v>10</v>
       </c>
@@ -14741,7 +14785,7 @@
         <v>24.246635437011719</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A542">
         <v>10</v>
       </c>
@@ -14755,7 +14799,7 @@
         <v>24.228132247924805</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A543">
         <v>10</v>
       </c>
@@ -14769,7 +14813,7 @@
         <v>27.969831466674805</v>
       </c>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A544">
         <v>10</v>
       </c>
@@ -14783,7 +14827,7 @@
         <v>27.927892684936523</v>
       </c>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A545">
         <v>10</v>
       </c>
@@ -14797,7 +14841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A546">
         <v>10</v>
       </c>
@@ -14811,7 +14855,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A547">
         <v>10</v>
       </c>
@@ -14825,7 +14869,7 @@
         <v>14.081713676452637</v>
       </c>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A548">
         <v>10</v>
       </c>
@@ -14839,7 +14883,7 @@
         <v>14.273807525634766</v>
       </c>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A549">
         <v>10</v>
       </c>
@@ -14853,7 +14897,7 @@
         <v>18.155765533447266</v>
       </c>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A550">
         <v>10</v>
       </c>
@@ -14867,7 +14911,7 @@
         <v>18.363258361816406</v>
       </c>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A551">
         <v>10</v>
       </c>
@@ -14881,7 +14925,7 @@
         <v>20.906435012817383</v>
       </c>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A552">
         <v>10</v>
       </c>
@@ -14895,7 +14939,7 @@
         <v>21.223522186279297</v>
       </c>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A553">
         <v>10</v>
       </c>
@@ -14909,7 +14953,7 @@
         <v>24.426704406738281</v>
       </c>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A554">
         <v>10</v>
       </c>
@@ -14923,7 +14967,7 @@
         <v>24.718345642089844</v>
       </c>
     </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A555">
         <v>10</v>
       </c>
@@ -14937,7 +14981,7 @@
         <v>28.161575317382813</v>
       </c>
     </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A556">
         <v>10</v>
       </c>
@@ -14951,7 +14995,7 @@
         <v>28.352964401245117</v>
       </c>
     </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A557">
         <v>10</v>
       </c>
@@ -14965,7 +15009,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A558">
         <v>10</v>
       </c>
@@ -14979,7 +15023,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A559">
         <v>11</v>
       </c>
@@ -14993,7 +15037,7 @@
         <v>13.976945877075195</v>
       </c>
     </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A560">
         <v>11</v>
       </c>
@@ -15007,7 +15051,7 @@
         <v>14.071878433227539</v>
       </c>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A561">
         <v>11</v>
       </c>
@@ -15021,7 +15065,7 @@
         <v>18.689107894897461</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A562">
         <v>11</v>
       </c>
@@ -15035,7 +15079,7 @@
         <v>18.392190933227539</v>
       </c>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A563">
         <v>11</v>
       </c>
@@ -15049,7 +15093,7 @@
         <v>21.333314895629883</v>
       </c>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A564">
         <v>11</v>
       </c>
@@ -15063,7 +15107,7 @@
         <v>21.509639739990234</v>
       </c>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A565">
         <v>11</v>
       </c>
@@ -15077,7 +15121,7 @@
         <v>25.379005432128906</v>
       </c>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A566">
         <v>11</v>
       </c>
@@ -15091,7 +15135,7 @@
         <v>25.238910675048828</v>
       </c>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A567">
         <v>11</v>
       </c>
@@ -15105,7 +15149,7 @@
         <v>28.841297149658203</v>
       </c>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A568">
         <v>11</v>
       </c>
@@ -15119,7 +15163,7 @@
         <v>27.867586135864258</v>
       </c>
     </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A569">
         <v>11</v>
       </c>
@@ -15133,7 +15177,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A570">
         <v>11</v>
       </c>
@@ -15147,7 +15191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A571">
         <v>11</v>
       </c>
@@ -15161,7 +15205,7 @@
         <v>13.704133033752441</v>
       </c>
     </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A572">
         <v>11</v>
       </c>
@@ -15175,7 +15219,7 @@
         <v>13.648039817810059</v>
       </c>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A573">
         <v>11</v>
       </c>
@@ -15189,7 +15233,7 @@
         <v>18.207931518554688</v>
       </c>
     </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A574">
         <v>11</v>
       </c>
@@ -15203,7 +15247,7 @@
         <v>18.095062255859375</v>
       </c>
     </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A575">
         <v>11</v>
       </c>
@@ -15217,7 +15261,7 @@
         <v>21.026214599609375</v>
       </c>
     </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A576">
         <v>11</v>
       </c>
@@ -15231,7 +15275,7 @@
         <v>21.03807258605957</v>
       </c>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A577">
         <v>11</v>
       </c>
@@ -15245,7 +15289,7 @@
         <v>24.878871917724609</v>
       </c>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A578">
         <v>11</v>
       </c>
@@ -15259,7 +15303,7 @@
         <v>24.9013671875</v>
       </c>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A579">
         <v>11</v>
       </c>
@@ -15273,7 +15317,7 @@
         <v>27.912519454956055</v>
       </c>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A580">
         <v>11</v>
       </c>
@@ -15287,7 +15331,7 @@
         <v>27.929952621459961</v>
       </c>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A581">
         <v>11</v>
       </c>
@@ -15301,7 +15345,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A582">
         <v>11</v>
       </c>
@@ -15315,7 +15359,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A583">
         <v>11</v>
       </c>
@@ -15329,7 +15373,7 @@
         <v>13.864686965942383</v>
       </c>
     </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A584">
         <v>11</v>
       </c>
@@ -15343,7 +15387,7 @@
         <v>14.131328582763672</v>
       </c>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A585">
         <v>11</v>
       </c>
@@ -15357,7 +15401,7 @@
         <v>18.321109771728516</v>
       </c>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A586">
         <v>11</v>
       </c>
@@ -15371,7 +15415,7 @@
         <v>18.496095657348633</v>
       </c>
     </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A587">
         <v>11</v>
       </c>
@@ -15385,7 +15429,7 @@
         <v>21.208568572998047</v>
       </c>
     </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A588">
         <v>11</v>
       </c>
@@ -15399,7 +15443,7 @@
         <v>21.531364440917969</v>
       </c>
     </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A589">
         <v>11</v>
       </c>
@@ -15413,7 +15457,7 @@
         <v>25.208518981933594</v>
       </c>
     </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A590">
         <v>11</v>
       </c>
@@ -15427,7 +15471,7 @@
         <v>25.05792236328125</v>
       </c>
     </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A591">
         <v>11</v>
       </c>
@@ -15441,7 +15485,7 @@
         <v>28.104736328125</v>
       </c>
     </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A592">
         <v>11</v>
       </c>
@@ -15455,7 +15499,7 @@
         <v>28.318321228027344</v>
       </c>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A593">
         <v>11</v>
       </c>
@@ -15469,7 +15513,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A594">
         <v>11</v>
       </c>
@@ -15483,7 +15527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A595">
         <v>11</v>
       </c>
@@ -15497,7 +15541,7 @@
         <v>12.075007438659668</v>
       </c>
     </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A596">
         <v>11</v>
       </c>
@@ -15511,7 +15555,7 @@
         <v>12.06786060333252</v>
       </c>
     </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A597">
         <v>11</v>
       </c>
@@ -15525,7 +15569,7 @@
         <v>21.512445449829102</v>
       </c>
     </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A598">
         <v>11</v>
       </c>
@@ -15539,7 +15583,7 @@
         <v>23.374362945556641</v>
       </c>
     </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A599">
         <v>11</v>
       </c>
@@ -15553,7 +15597,7 @@
         <v>26.327159881591797</v>
       </c>
     </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A600">
         <v>11</v>
       </c>
@@ -15567,7 +15611,7 @@
         <v>26.290336608886719</v>
       </c>
     </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A601">
         <v>11</v>
       </c>
@@ -15581,7 +15625,7 @@
         <v>29.109262466430664</v>
       </c>
     </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A602">
         <v>11</v>
       </c>
@@ -15595,7 +15639,7 @@
         <v>28.73588752746582</v>
       </c>
     </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A603">
         <v>11</v>
       </c>
@@ -15609,7 +15653,7 @@
         <v>33.490238189697266</v>
       </c>
     </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A604">
         <v>11</v>
       </c>
@@ -15623,7 +15667,7 @@
         <v>33.276031494140625</v>
       </c>
     </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A605">
         <v>11</v>
       </c>
@@ -15637,7 +15681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A606">
         <v>11</v>
       </c>
@@ -15651,7 +15695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A607">
         <v>11</v>
       </c>
@@ -15665,7 +15709,7 @@
         <v>12.29332447052002</v>
       </c>
     </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A608">
         <v>11</v>
       </c>
@@ -15679,7 +15723,7 @@
         <v>12.210517883300781</v>
       </c>
     </row>
-    <row r="609" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A609">
         <v>11</v>
       </c>
@@ -15693,7 +15737,7 @@
         <v>18.252964019775391</v>
       </c>
     </row>
-    <row r="610" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A610">
         <v>11</v>
       </c>
@@ -15707,7 +15751,7 @@
         <v>18.177261352539063</v>
       </c>
     </row>
-    <row r="611" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A611">
         <v>11</v>
       </c>
@@ -15721,7 +15765,7 @@
         <v>23.377002716064453</v>
       </c>
     </row>
-    <row r="612" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A612">
         <v>11</v>
       </c>
@@ -15735,7 +15779,7 @@
         <v>23.329347610473633</v>
       </c>
     </row>
-    <row r="613" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A613">
         <v>11</v>
       </c>
@@ -15749,7 +15793,7 @@
         <v>26.48145866394043</v>
       </c>
     </row>
-    <row r="614" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A614">
         <v>11</v>
       </c>
@@ -15763,7 +15807,7 @@
         <v>26.364749908447266</v>
       </c>
     </row>
-    <row r="615" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A615">
         <v>11</v>
       </c>
@@ -15777,7 +15821,7 @@
         <v>29.062778472900391</v>
       </c>
     </row>
-    <row r="616" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A616">
         <v>11</v>
       </c>
@@ -15791,7 +15835,7 @@
         <v>28.753496170043945</v>
       </c>
     </row>
-    <row r="617" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A617">
         <v>11</v>
       </c>
@@ -15805,7 +15849,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="618" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A618">
         <v>11</v>
       </c>
@@ -15828,21 +15872,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010003BDE5101B76F0459633745991D08C0F" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f85a01d50b65df0c9eafc6857f0457a8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="90f47f61-9859-4113-b0e3-ea51975acb36" xmlns:ns3="cead0f27-4271-4fa7-b6c9-6a5beaabb1ce" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="23a401299654711033809a6f689d4246" ns2:_="" ns3:_="">
     <xsd:import namespace="90f47f61-9859-4113-b0e3-ea51975acb36"/>
@@ -16059,24 +16088,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14F6A956-4020-496B-A89A-3075975DE303}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D85947CF-99E6-4226-B487-26EBDED7FB22}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC52A432-8660-49E9-99DE-14316E7E2C01}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16093,4 +16120,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D85947CF-99E6-4226-B487-26EBDED7FB22}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14F6A956-4020-496B-A89A-3075975DE303}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>